--- a/raw/necropsy/20250717_r2_GR_USDA-obex_RT-QuIC.xlsx
+++ b/raw/necropsy/20250717_r2_GR_USDA-obex_RT-QuIC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MNPRO\Desktop\RT-QuIC Data\Gage's RT-QuIC Data\2025\20250717_r2_GR_USDA-obex_RT-QuIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rowde002\Documents\Projects\usda-validation\raw\necropsy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76458D40-4847-4279-8D05-20F917FAEFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0433E65A-6106-4488-9FA8-C92F2DA37DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1500" windowWidth="21600" windowHeight="11295" xr2:uid="{C07FAE0B-72F0-48D4-BB3A-5B0C56B8D655}"/>
+    <workbookView xWindow="-28905" yWindow="105" windowWidth="14610" windowHeight="15585" xr2:uid="{C07FAE0B-72F0-48D4-BB3A-5B0C56B8D655}"/>
   </bookViews>
   <sheets>
     <sheet name="Microplate Cycle 1 (0 h)" sheetId="2" r:id="rId1"/>
@@ -32,12 +32,15 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="158">
   <si>
     <t>User: USER</t>
   </si>
@@ -1132,13 +1135,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D87F2C-06E5-43B7-81D9-51158BC2A9EE}">
   <dimension ref="A3:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1236,38 +1247,38 @@
       <c r="B16" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>145</v>
+      <c r="C16" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D16" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E16" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F16" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G16" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I16" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J16" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K16" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L16" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M16" s="13">
+        <v>1975</v>
       </c>
       <c r="O16" s="21"/>
     </row>
@@ -1278,38 +1289,38 @@
       <c r="B17" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M17" s="15" t="s">
-        <v>145</v>
+      <c r="C17" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D17" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E17" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F17" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H17" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I17" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J17" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K17" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L17" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -1319,38 +1330,38 @@
       <c r="B18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>145</v>
+      <c r="C18" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D18" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E18" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F18" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G18" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H18" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I18" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J18" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K18" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L18" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M18" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -1360,38 +1371,38 @@
       <c r="B19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>145</v>
+      <c r="C19" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D19" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G19" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H19" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I19" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J19" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K19" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L19" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M19" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1401,38 +1412,38 @@
       <c r="B20" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>145</v>
+      <c r="C20" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D20" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E20" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F20" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G20" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H20" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I20" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J20" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K20" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L20" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M20" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1442,38 +1453,38 @@
       <c r="B21" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M21" s="15" t="s">
-        <v>145</v>
+      <c r="C21" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D21" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E21" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F21" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G21" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H21" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I21" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J21" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K21" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L21" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M21" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -1483,38 +1494,38 @@
       <c r="B22" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="E22" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G22" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>145</v>
+      <c r="C22" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D22" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F22" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G22" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H22" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I22" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J22" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K22" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L22" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M22" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -1524,38 +1535,38 @@
       <c r="B23" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C23" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I23" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="K23" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>145</v>
+      <c r="C23" s="12">
+        <v>2265</v>
+      </c>
+      <c r="D23" s="12">
+        <v>2266</v>
+      </c>
+      <c r="E23" s="12">
+        <v>2267</v>
+      </c>
+      <c r="F23" s="12">
+        <v>2268</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2269</v>
+      </c>
+      <c r="H23" s="12">
+        <v>2270</v>
+      </c>
+      <c r="I23" s="12">
+        <v>2271</v>
+      </c>
+      <c r="J23" s="12">
+        <v>2272</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2273</v>
+      </c>
+      <c r="L23" s="12">
+        <v>1971</v>
+      </c>
+      <c r="M23" s="13">
+        <v>1975</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
